--- a/df.xlsx
+++ b/df.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\PycharmProjects\videoa_Annotator3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\PycharmProjects\videoa_Annotator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F8B167-B0C9-45A0-86DE-6A5B011C7455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102F4308-34B8-4F1B-AE81-A61D3B115AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,40 +20,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Time</t>
+    <t>Start</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t>End</t>
   </si>
   <si>
-    <t>aaaaa</t>
+    <t>Parent</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>Not bad</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>cbb</t>
-  </si>
-  <si>
-    <t>busy</t>
+    <t>Entry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +50,20 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,10 +101,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,79 +414,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>3.8319999999999999</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>